--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,67 +43,55 @@
     <t>kill</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -112,187 +100,175 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>support</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>create</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>huge</t>
   </si>
   <si>
-    <t>team</t>
+    <t>protect</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
     <t>super</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -650,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -769,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>115</v>
-      </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -890,16 +866,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8493150684931506</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C7">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -969,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8108108108108109</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.9333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,16 +1116,16 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.9285714285714286</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7222222222222222</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1219,37 +1195,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.9138381201044387</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L13">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.9090909090909091</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.4844961240310077</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.9069767441860465</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.582010582010582</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.9014084507042254</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L16">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.8984375</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5652173913043478</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1519,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4689922480620155</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C19">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.8928571428571429</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1569,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4117647058823529</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,245 +1563,149 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.8828125</v>
+      </c>
+      <c r="L20">
+        <v>113</v>
+      </c>
+      <c r="M20">
+        <v>113</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>0.8658536585365854</v>
+      </c>
+      <c r="L21">
+        <v>71</v>
+      </c>
+      <c r="M21">
+        <v>71</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>0.8625</v>
+      </c>
+      <c r="L22">
+        <v>138</v>
+      </c>
+      <c r="M22">
+        <v>138</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K20">
-        <v>0.88125</v>
-      </c>
-      <c r="L20">
-        <v>141</v>
-      </c>
-      <c r="M20">
-        <v>141</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.4067796610169492</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>35</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.8773584905660378</v>
-      </c>
-      <c r="L21">
-        <v>93</v>
-      </c>
-      <c r="M21">
-        <v>93</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.2933333333333333</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>53</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.2885906040268457</v>
-      </c>
-      <c r="C23">
-        <v>43</v>
-      </c>
-      <c r="D23">
-        <v>43</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>106</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
+      <c r="K24">
         <v>0.8611111111111112</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>31</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>31</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>42</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L24">
-        <v>70</v>
-      </c>
-      <c r="M24">
-        <v>70</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.851063829787234</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.8235294117647058</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1863,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.82</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1894,16 +1774,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.8148148148148148</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1915,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1941,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.7936507936507936</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1967,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.7894736842105263</v>
+        <v>0.775</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1993,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.7857142857142857</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2019,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2045,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.7714285714285715</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2071,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2097,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.7470588235294118</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L36">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="M36">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2123,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.7391304347826086</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2149,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.7272727272727273</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2175,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.7254237288135593</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2201,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.7071129707112971</v>
+        <v>0.7</v>
       </c>
       <c r="L40">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2227,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.6966292134831461</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M41">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2253,21 +2133,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.6923076923076923</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2279,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2305,21 +2185,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2331,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.6785714285714286</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2357,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.6666666666666666</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2383,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.6428571428571429</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2409,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.6363636363636364</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2435,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K49">
-        <v>0.6190476190476191</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2461,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.6153846153846154</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2487,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.5952380952380952</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2513,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>0.5882352941176471</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2539,21 +2419,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.5833333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2570,10 +2450,10 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.5652173913043478</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L54">
         <v>13</v>
@@ -2591,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K55">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2617,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K56">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2643,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K57">
-        <v>0.5384615384615384</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2669,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2695,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K59">
-        <v>0.4838709677419355</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2721,21 +2601,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K60">
-        <v>0.4520547945205479</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2747,111 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="L61">
-        <v>13</v>
-      </c>
-      <c r="M61">
-        <v>13</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L62">
-        <v>15</v>
-      </c>
-      <c r="M62">
-        <v>15</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K63">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L63">
-        <v>25</v>
-      </c>
-      <c r="M63">
-        <v>25</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K64">
-        <v>0.2542372881355932</v>
-      </c>
-      <c r="L64">
-        <v>15</v>
-      </c>
-      <c r="M64">
-        <v>15</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
